--- a/docs/Sprint 3 - 2303 To 0504/LogTime.xlsx
+++ b/docs/Sprint 3 - 2303 To 0504/LogTime.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\OTHER\Project-e\Github\docs\sprint 3 - 2303 To 0504\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\OTHER\Project-e\Github\docs\Sprint 3 - 2303 To 0504\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -13,8 +13,7 @@
   </bookViews>
   <sheets>
     <sheet name="ANLT" sheetId="1" r:id="rId1"/>
-    <sheet name="QUANGD" sheetId="2" r:id="rId2"/>
-    <sheet name="ANHDT" sheetId="3" r:id="rId3"/>
+    <sheet name="ANHDT" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="15">
   <si>
     <t>Column1</t>
   </si>
@@ -67,13 +66,10 @@
     <t>22/03/2014</t>
   </si>
   <si>
-    <t xml:space="preserve">Thời gian đã sử dụng </t>
-  </si>
-  <si>
-    <t>Mức độ Busy</t>
-  </si>
-  <si>
     <t>16/03/2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Refactor và cấu trúc dự án </t>
   </si>
 </sst>
 </file>
@@ -116,10 +112,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
-    <dxf>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
     </dxf>
@@ -140,7 +133,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table24" displayName="Table24" ref="A1:M8" totalsRowShown="0" headerRowDxfId="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table24" displayName="Table24" ref="A1:M8" totalsRowShown="0" headerRowDxfId="1">
   <autoFilter ref="A1:M8"/>
   <tableColumns count="13">
     <tableColumn id="1" name="Column1"/>
@@ -162,29 +155,6 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:N9" totalsRowShown="0" headerRowDxfId="1">
-  <autoFilter ref="A1:N9"/>
-  <tableColumns count="14">
-    <tableColumn id="1" name="Column1"/>
-    <tableColumn id="2" name="10/03/2014"/>
-    <tableColumn id="3" name="11/03/2014"/>
-    <tableColumn id="4" name="12/03/2014"/>
-    <tableColumn id="5" name="13/03/2014"/>
-    <tableColumn id="6" name="14/03/2014"/>
-    <tableColumn id="7" name="15/03/2014"/>
-    <tableColumn id="14" name="16/03/2015"/>
-    <tableColumn id="8" name="17/03/2014"/>
-    <tableColumn id="9" name="18/03/2014"/>
-    <tableColumn id="10" name="19/03/2014"/>
-    <tableColumn id="11" name="20/03/2014"/>
-    <tableColumn id="12" name="21/03/2014"/>
-    <tableColumn id="13" name="22/03/2014"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table22" displayName="Table22" ref="A1:N9" totalsRowShown="0" headerRowDxfId="0">
   <autoFilter ref="A1:N9"/>
   <tableColumns count="14">
@@ -470,10 +440,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M1"/>
+  <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -523,6 +493,14 @@
         <v>12</v>
       </c>
     </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -533,93 +511,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S13"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="27.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="14" width="12.85546875" customWidth="1"/>
-    <col min="15" max="19" width="10.7109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
-      <c r="Q1" s="1"/>
-      <c r="R1" s="1"/>
-      <c r="S1" s="1"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>14</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-  <tableParts count="1">
-    <tablePart r:id="rId2"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K13" sqref="J13:K13"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -653,7 +548,7 @@
         <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>7</v>
@@ -672,6 +567,14 @@
       </c>
       <c r="N1" s="1" t="s">
         <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Sprint 3 - 2303 To 0504/LogTime.xlsx
+++ b/docs/Sprint 3 - 2303 To 0504/LogTime.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14160" windowHeight="6165" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14160" windowHeight="6165"/>
   </bookViews>
   <sheets>
     <sheet name="ANLT" sheetId="1" r:id="rId1"/>
@@ -25,51 +25,60 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="18">
   <si>
     <t>Column1</t>
   </si>
   <si>
-    <t>10/03/2014</t>
-  </si>
-  <si>
-    <t>11/03/2014</t>
-  </si>
-  <si>
-    <t>12/03/2014</t>
-  </si>
-  <si>
-    <t>13/03/2014</t>
-  </si>
-  <si>
-    <t>14/03/2014</t>
-  </si>
-  <si>
-    <t>15/03/2014</t>
-  </si>
-  <si>
-    <t>17/03/2014</t>
-  </si>
-  <si>
-    <t>18/03/2014</t>
-  </si>
-  <si>
-    <t>19/03/2014</t>
-  </si>
-  <si>
-    <t>20/03/2014</t>
-  </si>
-  <si>
-    <t>21/03/2014</t>
-  </si>
-  <si>
     <t>22/03/2014</t>
   </si>
   <si>
-    <t>16/03/2015</t>
-  </si>
-  <si>
     <t xml:space="preserve">Refactor và cấu trúc dự án </t>
+  </si>
+  <si>
+    <t>24/03/2014</t>
+  </si>
+  <si>
+    <t>25/03/2014</t>
+  </si>
+  <si>
+    <t>26/03/2014</t>
+  </si>
+  <si>
+    <t>27/03/2014</t>
+  </si>
+  <si>
+    <t>28/03/2014</t>
+  </si>
+  <si>
+    <t>29/03/2014</t>
+  </si>
+  <si>
+    <t>30/03/2014</t>
+  </si>
+  <si>
+    <t>31/03/2014</t>
+  </si>
+  <si>
+    <t>01/04/2014</t>
+  </si>
+  <si>
+    <t>02/04/2014</t>
+  </si>
+  <si>
+    <t>03/04/2014</t>
+  </si>
+  <si>
+    <t>04/04/2014</t>
+  </si>
+  <si>
+    <t>Registor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">File URL Controller </t>
+  </si>
+  <si>
+    <t>Chỉnh sửa cấu trúc DB</t>
   </si>
 </sst>
 </file>
@@ -133,22 +142,22 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table24" displayName="Table24" ref="A1:M8" totalsRowShown="0" headerRowDxfId="1">
-  <autoFilter ref="A1:M8"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table24" displayName="Table24" ref="A1:M9" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="A1:M9"/>
   <tableColumns count="13">
     <tableColumn id="1" name="Column1"/>
-    <tableColumn id="2" name="10/03/2014"/>
-    <tableColumn id="3" name="11/03/2014"/>
-    <tableColumn id="4" name="12/03/2014"/>
-    <tableColumn id="5" name="13/03/2014"/>
-    <tableColumn id="6" name="14/03/2014"/>
-    <tableColumn id="7" name="15/03/2014"/>
-    <tableColumn id="8" name="17/03/2014"/>
-    <tableColumn id="9" name="18/03/2014"/>
-    <tableColumn id="10" name="19/03/2014"/>
-    <tableColumn id="11" name="20/03/2014"/>
-    <tableColumn id="12" name="21/03/2014"/>
-    <tableColumn id="13" name="22/03/2014"/>
+    <tableColumn id="2" name="24/03/2014"/>
+    <tableColumn id="3" name="25/03/2014"/>
+    <tableColumn id="4" name="26/03/2014"/>
+    <tableColumn id="5" name="27/03/2014"/>
+    <tableColumn id="6" name="28/03/2014"/>
+    <tableColumn id="7" name="29/03/2014"/>
+    <tableColumn id="8" name="30/03/2014"/>
+    <tableColumn id="9" name="31/03/2014"/>
+    <tableColumn id="10" name="01/04/2014"/>
+    <tableColumn id="11" name="02/04/2014"/>
+    <tableColumn id="12" name="03/04/2014"/>
+    <tableColumn id="13" name="04/04/2014"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -159,18 +168,18 @@
   <autoFilter ref="A1:N9"/>
   <tableColumns count="14">
     <tableColumn id="1" name="Column1"/>
-    <tableColumn id="2" name="10/03/2014"/>
-    <tableColumn id="3" name="11/03/2014"/>
-    <tableColumn id="4" name="12/03/2014"/>
-    <tableColumn id="5" name="13/03/2014"/>
-    <tableColumn id="6" name="14/03/2014"/>
-    <tableColumn id="7" name="15/03/2014"/>
-    <tableColumn id="15" name="16/03/2015"/>
-    <tableColumn id="8" name="17/03/2014"/>
-    <tableColumn id="9" name="18/03/2014"/>
-    <tableColumn id="10" name="19/03/2014"/>
-    <tableColumn id="11" name="20/03/2014"/>
-    <tableColumn id="12" name="21/03/2014"/>
+    <tableColumn id="2" name="24/03/2014"/>
+    <tableColumn id="3" name="25/03/2014"/>
+    <tableColumn id="4" name="26/03/2014"/>
+    <tableColumn id="5" name="27/03/2014"/>
+    <tableColumn id="6" name="28/03/2014"/>
+    <tableColumn id="7" name="29/03/2014"/>
+    <tableColumn id="15" name="30/03/2014"/>
+    <tableColumn id="8" name="31/03/2014"/>
+    <tableColumn id="9" name="01/04/2014"/>
+    <tableColumn id="10" name="02/04/2014"/>
+    <tableColumn id="11" name="03/04/2014"/>
+    <tableColumn id="12" name="04/04/2014"/>
     <tableColumn id="13" name="22/03/2014"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -440,10 +449,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:M3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -457,47 +466,55 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="B2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3">
         <v>4</v>
       </c>
     </row>
@@ -511,10 +528,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N2"/>
+  <dimension ref="A1:N4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -530,50 +547,63 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="B2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4">
         <v>4</v>
       </c>
     </row>

--- a/docs/Sprint 3 - 2303 To 0504/LogTime.xlsx
+++ b/docs/Sprint 3 - 2303 To 0504/LogTime.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="22">
   <si>
     <t>Column1</t>
   </si>
@@ -79,6 +79,18 @@
   </si>
   <si>
     <t>Chỉnh sửa cấu trúc DB</t>
+  </si>
+  <si>
+    <t>Database portal</t>
+  </si>
+  <si>
+    <t>ORM</t>
+  </si>
+  <si>
+    <t>Database subsystem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Account biz and model </t>
   </si>
 </sst>
 </file>
@@ -449,10 +461,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M3"/>
+  <dimension ref="A1:M5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -517,6 +529,25 @@
       <c r="C3">
         <v>4</v>
       </c>
+      <c r="E3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5">
+        <v>2</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -528,10 +559,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N4"/>
+  <dimension ref="A1:N6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -606,6 +637,25 @@
       <c r="C4">
         <v>4</v>
       </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/docs/Sprint 3 - 2303 To 0504/LogTime.xlsx
+++ b/docs/Sprint 3 - 2303 To 0504/LogTime.xlsx
@@ -464,7 +464,7 @@
   <dimension ref="A1:M5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -538,7 +538,7 @@
         <v>18</v>
       </c>
       <c r="D4">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
@@ -562,7 +562,7 @@
   <dimension ref="A1:N6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/docs/Sprint 3 - 2303 To 0504/LogTime.xlsx
+++ b/docs/Sprint 3 - 2303 To 0504/LogTime.xlsx
@@ -9,13 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14160" windowHeight="6165"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14160" windowHeight="6165" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="ANLT" sheetId="1" r:id="rId1"/>
     <sheet name="ANHDT" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="25">
   <si>
     <t>Column1</t>
   </si>
@@ -91,6 +91,15 @@
   </si>
   <si>
     <t xml:space="preserve">Account biz and model </t>
+  </si>
+  <si>
+    <t>Facebook register - login</t>
+  </si>
+  <si>
+    <t>Facebook Login refactor</t>
+  </si>
+  <si>
+    <t>Multidb</t>
   </si>
 </sst>
 </file>
@@ -154,37 +163,71 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table24" displayName="Table24" ref="A1:M9" totalsRowShown="0" headerRowDxfId="1">
-  <autoFilter ref="A1:M9"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table24" displayName="Table24" ref="A1:M10" totalsRowCount="1" headerRowDxfId="1">
+  <autoFilter ref="A1:M10"/>
   <tableColumns count="13">
     <tableColumn id="1" name="Column1"/>
-    <tableColumn id="2" name="24/03/2014"/>
-    <tableColumn id="3" name="25/03/2014"/>
-    <tableColumn id="4" name="26/03/2014"/>
-    <tableColumn id="5" name="27/03/2014"/>
-    <tableColumn id="6" name="28/03/2014"/>
-    <tableColumn id="7" name="29/03/2014"/>
-    <tableColumn id="8" name="30/03/2014"/>
-    <tableColumn id="9" name="31/03/2014"/>
-    <tableColumn id="10" name="01/04/2014"/>
-    <tableColumn id="11" name="02/04/2014"/>
-    <tableColumn id="12" name="03/04/2014"/>
-    <tableColumn id="13" name="04/04/2014"/>
+    <tableColumn id="2" name="24/03/2014" totalsRowFunction="custom">
+      <totalsRowFormula>SUM(Table24[24/03/2014])</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="3" name="25/03/2014" totalsRowFunction="custom">
+      <totalsRowFormula>SUM(Table24[25/03/2014])</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="4" name="26/03/2014" totalsRowFunction="custom">
+      <totalsRowFormula>SUM(Table24[26/03/2014])</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="5" name="27/03/2014" totalsRowFunction="custom">
+      <totalsRowFormula>SUM(Table24[27/03/2014])</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="6" name="28/03/2014" totalsRowFunction="custom">
+      <totalsRowFormula>SUM(Table24[28/03/2014])</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="7" name="29/03/2014" totalsRowFunction="custom">
+      <totalsRowFormula>SUM(Table24[29/03/2014])</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="8" name="30/03/2014" totalsRowFunction="custom">
+      <totalsRowFormula>SUM(Table24[30/03/2014])</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="9" name="31/03/2014" totalsRowFunction="custom">
+      <totalsRowFormula>SUM(Table24[31/03/2014])</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="10" name="01/04/2014" totalsRowFunction="custom">
+      <totalsRowFormula>SUM(Table24[01/04/2014])</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="11" name="02/04/2014" totalsRowFunction="custom">
+      <totalsRowFormula>SUM(Table24[02/04/2014])</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="12" name="03/04/2014" totalsRowFunction="custom">
+      <totalsRowFormula>SUM(Table24[03/04/2014])</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="13" name="04/04/2014" totalsRowFunction="custom">
+      <totalsRowFormula>SUM(Table24[04/04/2014])</totalsRowFormula>
+    </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table22" displayName="Table22" ref="A1:N9" totalsRowShown="0" headerRowDxfId="0">
-  <autoFilter ref="A1:N9"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table22" displayName="Table22" ref="A1:N10" totalsRowCount="1" headerRowDxfId="0">
+  <autoFilter ref="A1:N10"/>
   <tableColumns count="14">
     <tableColumn id="1" name="Column1"/>
-    <tableColumn id="2" name="24/03/2014"/>
-    <tableColumn id="3" name="25/03/2014"/>
-    <tableColumn id="4" name="26/03/2014"/>
-    <tableColumn id="5" name="27/03/2014"/>
-    <tableColumn id="6" name="28/03/2014"/>
+    <tableColumn id="2" name="24/03/2014" totalsRowFunction="custom">
+      <totalsRowFormula>SUM(Table22[24/03/2014])</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="3" name="25/03/2014" totalsRowFunction="custom">
+      <totalsRowFormula>SUM(Table22[25/03/2014])</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="4" name="26/03/2014" totalsRowFunction="custom">
+      <totalsRowFormula>SUM(Table22[26/03/2014])</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="5" name="27/03/2014" totalsRowFunction="custom">
+      <totalsRowFormula>SUM(Table22[27/03/2014])</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="6" name="28/03/2014" totalsRowFunction="custom">
+      <totalsRowFormula>SUM(Table22[28/03/2014])</totalsRowFormula>
+    </tableColumn>
     <tableColumn id="7" name="29/03/2014"/>
     <tableColumn id="15" name="30/03/2014"/>
     <tableColumn id="8" name="31/03/2014"/>
@@ -461,10 +504,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M5"/>
+  <dimension ref="A1:M11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -532,6 +575,9 @@
       <c r="E3">
         <v>4</v>
       </c>
+      <c r="F3">
+        <v>3</v>
+      </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -547,6 +593,78 @@
       </c>
       <c r="D5">
         <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B10">
+        <f>SUM(Table24[24/03/2014])</f>
+        <v>4</v>
+      </c>
+      <c r="C10">
+        <f>SUM(Table24[25/03/2014])</f>
+        <v>4</v>
+      </c>
+      <c r="D10">
+        <f>SUM(Table24[26/03/2014])</f>
+        <v>4</v>
+      </c>
+      <c r="E10">
+        <f>SUM(Table24[27/03/2014])</f>
+        <v>4</v>
+      </c>
+      <c r="F10">
+        <f>SUM(Table24[28/03/2014])</f>
+        <v>3</v>
+      </c>
+      <c r="G10">
+        <f>SUM(Table24[29/03/2014])</f>
+        <v>6</v>
+      </c>
+      <c r="H10">
+        <f>SUM(Table24[30/03/2014])</f>
+        <v>4</v>
+      </c>
+      <c r="I10">
+        <f>SUM(Table24[31/03/2014])</f>
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <f>SUM(Table24[01/04/2014])</f>
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <f>SUM(Table24[02/04/2014])</f>
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <f>SUM(Table24[03/04/2014])</f>
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <f>SUM(Table24[04/04/2014])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <f>SUM(Table24[[24/03/2014]:[04/04/2014]])</f>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -559,15 +677,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N6"/>
+  <dimension ref="A1:N10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10:F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="39.7109375" customWidth="1"/>
     <col min="2" max="7" width="13" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13" customWidth="1"/>
     <col min="9" max="14" width="13" bestFit="1" customWidth="1"/>
@@ -648,6 +766,9 @@
       <c r="E5">
         <v>1</v>
       </c>
+      <c r="F5">
+        <v>2</v>
+      </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -655,6 +776,36 @@
       </c>
       <c r="E6">
         <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B10">
+        <f>SUM(Table22[24/03/2014])</f>
+        <v>4</v>
+      </c>
+      <c r="C10">
+        <f>SUM(Table22[25/03/2014])</f>
+        <v>4</v>
+      </c>
+      <c r="D10">
+        <f>SUM(Table22[26/03/2014])</f>
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <f>SUM(Table22[27/03/2014])</f>
+        <v>4</v>
+      </c>
+      <c r="F10">
+        <f>SUM(Table22[28/03/2014])</f>
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Sprint 3 - 2303 To 0504/LogTime.xlsx
+++ b/docs/Sprint 3 - 2303 To 0504/LogTime.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14160" windowHeight="6165" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14160" windowHeight="6165"/>
   </bookViews>
   <sheets>
     <sheet name="ANLT" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="27">
   <si>
     <t>Column1</t>
   </si>
@@ -100,6 +100,12 @@
   </si>
   <si>
     <t>Multidb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Planing &amp; create report </t>
+  </si>
+  <si>
+    <t>Email</t>
   </si>
 </sst>
 </file>
@@ -164,7 +170,7 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table24" displayName="Table24" ref="A1:M10" totalsRowCount="1" headerRowDxfId="1">
-  <autoFilter ref="A1:M10"/>
+  <autoFilter ref="A1:M9"/>
   <tableColumns count="13">
     <tableColumn id="1" name="Column1"/>
     <tableColumn id="2" name="24/03/2014" totalsRowFunction="custom">
@@ -210,7 +216,7 @@
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table22" displayName="Table22" ref="A1:N10" totalsRowCount="1" headerRowDxfId="0">
-  <autoFilter ref="A1:N10"/>
+  <autoFilter ref="A1:N9"/>
   <tableColumns count="14">
     <tableColumn id="1" name="Column1"/>
     <tableColumn id="2" name="24/03/2014" totalsRowFunction="custom">
@@ -506,8 +512,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -611,6 +617,22 @@
         <v>4</v>
       </c>
     </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>25</v>
+      </c>
+      <c r="I8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I9">
+        <v>2</v>
+      </c>
+    </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B10">
         <f>SUM(Table24[24/03/2014])</f>
@@ -642,7 +664,7 @@
       </c>
       <c r="I10">
         <f>SUM(Table24[31/03/2014])</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J10">
         <f>SUM(Table24[01/04/2014])</f>
@@ -664,7 +686,7 @@
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11">
         <f>SUM(Table24[[24/03/2014]:[04/04/2014]])</f>
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -679,8 +701,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10:F10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/docs/Sprint 3 - 2303 To 0504/LogTime.xlsx
+++ b/docs/Sprint 3 - 2303 To 0504/LogTime.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14160" windowHeight="6165"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14160" windowHeight="6165" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="ANLT" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="28">
   <si>
     <t>Column1</t>
   </si>
@@ -106,6 +106,9 @@
   </si>
   <si>
     <t>Email</t>
+  </si>
+  <si>
+    <t>Meeting về data struct và  data flow</t>
   </si>
 </sst>
 </file>
@@ -512,8 +515,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -701,8 +704,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -808,6 +811,14 @@
         <v>2</v>
       </c>
     </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>27</v>
+      </c>
+      <c r="I8">
+        <v>2</v>
+      </c>
+    </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B10">
         <f>SUM(Table22[24/03/2014])</f>

--- a/docs/Sprint 3 - 2303 To 0504/LogTime.xlsx
+++ b/docs/Sprint 3 - 2303 To 0504/LogTime.xlsx
@@ -25,14 +25,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="40">
   <si>
     <t>Column1</t>
   </si>
   <si>
-    <t>22/03/2014</t>
-  </si>
-  <si>
     <t xml:space="preserve">Refactor và cấu trúc dự án </t>
   </si>
   <si>
@@ -109,6 +106,45 @@
   </si>
   <si>
     <t>Meeting về data struct và  data flow</t>
+  </si>
+  <si>
+    <t>05/04/2014</t>
+  </si>
+  <si>
+    <t>05/04/2015</t>
+  </si>
+  <si>
+    <t>06/04/2015</t>
+  </si>
+  <si>
+    <t>Commit một phần Wishlist</t>
+  </si>
+  <si>
+    <t>Làm phần security</t>
+  </si>
+  <si>
+    <t>cho phép active account bằng email</t>
+  </si>
+  <si>
+    <t>Commit user login history</t>
+  </si>
+  <si>
+    <t>Cho phép khách hàng có thể thay đổi pass</t>
+  </si>
+  <si>
+    <t>06/04/2016</t>
+  </si>
+  <si>
+    <t>update reset password security</t>
+  </si>
+  <si>
+    <t>màn hình thay đổi thông tin cơ bản của tài khoản</t>
+  </si>
+  <si>
+    <t>tích hợp portal vs sub system</t>
+  </si>
+  <si>
+    <t>Commit shipping</t>
   </si>
 </sst>
 </file>
@@ -172,9 +208,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table24" displayName="Table24" ref="A1:M10" totalsRowCount="1" headerRowDxfId="1">
-  <autoFilter ref="A1:M9"/>
-  <tableColumns count="13">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table24" displayName="Table24" ref="A1:O17" totalsRowCount="1" headerRowDxfId="0">
+  <autoFilter ref="A1:O16"/>
+  <tableColumns count="15">
     <tableColumn id="1" name="Column1"/>
     <tableColumn id="2" name="24/03/2014" totalsRowFunction="custom">
       <totalsRowFormula>SUM(Table24[24/03/2014])</totalsRowFormula>
@@ -211,6 +247,12 @@
     </tableColumn>
     <tableColumn id="13" name="04/04/2014" totalsRowFunction="custom">
       <totalsRowFormula>SUM(Table24[04/04/2014])</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="14" name="05/04/2015" totalsRowFunction="custom">
+      <totalsRowFormula>SUM(Table24[05/04/2015])</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="15" name="06/04/2016" totalsRowFunction="custom">
+      <totalsRowFormula>SUM(Table24[06/04/2016])</totalsRowFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -218,9 +260,9 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table22" displayName="Table22" ref="A1:N10" totalsRowCount="1" headerRowDxfId="0">
-  <autoFilter ref="A1:N9"/>
-  <tableColumns count="14">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table22" displayName="Table22" ref="A1:O14" totalsRowCount="1" headerRowDxfId="1">
+  <autoFilter ref="A1:O13"/>
+  <tableColumns count="15">
     <tableColumn id="1" name="Column1"/>
     <tableColumn id="2" name="24/03/2014" totalsRowFunction="custom">
       <totalsRowFormula>SUM(Table22[24/03/2014])</totalsRowFormula>
@@ -237,14 +279,33 @@
     <tableColumn id="6" name="28/03/2014" totalsRowFunction="custom">
       <totalsRowFormula>SUM(Table22[28/03/2014])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="7" name="29/03/2014"/>
-    <tableColumn id="15" name="30/03/2014"/>
-    <tableColumn id="8" name="31/03/2014"/>
-    <tableColumn id="9" name="01/04/2014"/>
-    <tableColumn id="10" name="02/04/2014"/>
-    <tableColumn id="11" name="03/04/2014"/>
-    <tableColumn id="12" name="04/04/2014"/>
-    <tableColumn id="13" name="22/03/2014"/>
+    <tableColumn id="7" name="29/03/2014" totalsRowFunction="custom">
+      <totalsRowFormula>SUM(Table22[29/03/2014])</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="15" name="30/03/2014" totalsRowFunction="custom">
+      <totalsRowFormula>SUM(Table22[30/03/2014])</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="8" name="31/03/2014" totalsRowFunction="custom">
+      <totalsRowFormula>SUM(Table22[31/03/2014])</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="9" name="01/04/2014" totalsRowFunction="custom">
+      <totalsRowFormula>SUM(Table22[01/04/2014])</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="10" name="02/04/2014" totalsRowFunction="custom">
+      <totalsRowFormula>SUM(Table22[02/04/2014])</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="11" name="03/04/2014" totalsRowFunction="custom">
+      <totalsRowFormula>SUM(Table22[03/04/2014])</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="12" name="04/04/2014" totalsRowFunction="custom">
+      <totalsRowFormula>SUM(Table22[04/04/2014])</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="13" name="05/04/2014" totalsRowFunction="custom">
+      <totalsRowFormula>SUM(Table22[05/04/2014])</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="14" name="06/04/2015" totalsRowFunction="custom">
+      <totalsRowFormula>SUM(Table22[06/04/2015])</totalsRowFormula>
+    </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -513,70 +574,77 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M11"/>
+  <dimension ref="A1:O18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="36.140625" customWidth="1"/>
+    <col min="1" max="1" width="37.140625" customWidth="1"/>
     <col min="2" max="13" width="13" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>4</v>
-      </c>
       <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>15</v>
       </c>
       <c r="C3">
         <v>4</v>
@@ -588,108 +656,175 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D4">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>21</v>
-      </c>
-      <c r="D5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>22</v>
       </c>
       <c r="G6">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H7">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>24</v>
+      </c>
+      <c r="I8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>25</v>
       </c>
-      <c r="I8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>26</v>
-      </c>
       <c r="I9">
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B10">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>31</v>
+      </c>
+      <c r="J10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>32</v>
+      </c>
+      <c r="J11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>33</v>
+      </c>
+      <c r="K12">
+        <v>4</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>34</v>
+      </c>
+      <c r="L13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>36</v>
+      </c>
+      <c r="M14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>37</v>
+      </c>
+      <c r="N15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>38</v>
+      </c>
+      <c r="O16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B17">
         <f>SUM(Table24[24/03/2014])</f>
         <v>4</v>
       </c>
-      <c r="C10">
+      <c r="C17">
         <f>SUM(Table24[25/03/2014])</f>
         <v>4</v>
       </c>
-      <c r="D10">
+      <c r="D17">
         <f>SUM(Table24[26/03/2014])</f>
         <v>4</v>
       </c>
-      <c r="E10">
+      <c r="E17">
         <f>SUM(Table24[27/03/2014])</f>
         <v>4</v>
       </c>
-      <c r="F10">
+      <c r="F17">
         <f>SUM(Table24[28/03/2014])</f>
         <v>3</v>
       </c>
-      <c r="G10">
+      <c r="G17">
         <f>SUM(Table24[29/03/2014])</f>
         <v>6</v>
       </c>
-      <c r="H10">
+      <c r="H17">
         <f>SUM(Table24[30/03/2014])</f>
         <v>4</v>
       </c>
-      <c r="I10">
+      <c r="I17">
         <f>SUM(Table24[31/03/2014])</f>
         <v>4</v>
       </c>
-      <c r="J10">
+      <c r="J17">
         <f>SUM(Table24[01/04/2014])</f>
-        <v>0</v>
-      </c>
-      <c r="K10">
+        <v>4</v>
+      </c>
+      <c r="K17">
         <f>SUM(Table24[02/04/2014])</f>
-        <v>0</v>
-      </c>
-      <c r="L10">
+        <v>4</v>
+      </c>
+      <c r="L17">
         <f>SUM(Table24[03/04/2014])</f>
-        <v>0</v>
-      </c>
-      <c r="M10">
+        <v>5</v>
+      </c>
+      <c r="M17">
         <f>SUM(Table24[04/04/2014])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11">
+        <v>4</v>
+      </c>
+      <c r="N17">
+        <f>SUM(Table24[05/04/2015])</f>
+        <v>4</v>
+      </c>
+      <c r="O17">
+        <f>SUM(Table24[06/04/2016])</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A18">
         <f>SUM(Table24[[24/03/2014]:[04/04/2014]])</f>
-        <v>33</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -702,10 +837,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N10"/>
+  <dimension ref="A1:O14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+      <selection activeCell="O19" sqref="O19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -713,70 +848,74 @@
     <col min="1" max="1" width="39.7109375" customWidth="1"/>
     <col min="2" max="7" width="13" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13" customWidth="1"/>
-    <col min="9" max="14" width="13" bestFit="1" customWidth="1"/>
+    <col min="9" max="13" width="13" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="10.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>4</v>
-      </c>
       <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="N1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
       <c r="B2">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>17</v>
-      </c>
       <c r="C4">
         <v>4</v>
       </c>
@@ -784,9 +923,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -795,50 +934,102 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E6">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F7">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I8">
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B10">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>30</v>
+      </c>
+      <c r="K9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>39</v>
+      </c>
+      <c r="O10">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B14">
         <f>SUM(Table22[24/03/2014])</f>
         <v>4</v>
       </c>
-      <c r="C10">
+      <c r="C14">
         <f>SUM(Table22[25/03/2014])</f>
         <v>4</v>
       </c>
-      <c r="D10">
+      <c r="D14">
         <f>SUM(Table22[26/03/2014])</f>
         <v>0</v>
       </c>
-      <c r="E10">
+      <c r="E14">
         <f>SUM(Table22[27/03/2014])</f>
         <v>4</v>
       </c>
-      <c r="F10">
+      <c r="F14">
         <f>SUM(Table22[28/03/2014])</f>
         <v>4</v>
+      </c>
+      <c r="G14">
+        <f>SUM(Table22[29/03/2014])</f>
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <f>SUM(Table22[30/03/2014])</f>
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <f>SUM(Table22[31/03/2014])</f>
+        <v>2</v>
+      </c>
+      <c r="J14">
+        <f>SUM(Table22[01/04/2014])</f>
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <f>SUM(Table22[02/04/2014])</f>
+        <v>4</v>
+      </c>
+      <c r="L14">
+        <f>SUM(Table22[03/04/2014])</f>
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <f>SUM(Table22[04/04/2014])</f>
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <f>SUM(Table22[05/04/2014])</f>
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <f>SUM(Table22[06/04/2015])</f>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
